--- a/Livrable-2/Dictionnaire de données final.xlsx
+++ b/Livrable-2/Dictionnaire de données final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viacesifr-my.sharepoint.com/personal/anthony_schnepp_viacesi_fr/Documents/Bureau/Études One Drive/A2/Projets/Programmation orientée objet/Livrable 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{580B3F30-1DBD-4438-AD19-EBA9ADCE404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121C7E51-82C7-40DC-8A90-AA3E4F4737A6}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{580B3F30-1DBD-4438-AD19-EBA9ADCE404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D8A61E-1C6D-499A-AE20-8953821CF7CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB4EF615-54DA-4A8A-8E99-B0FF27B7371C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>N</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Nom_rue</t>
   </si>
   <si>
-    <t>Type_adresse</t>
-  </si>
-  <si>
     <t>Id_personne</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
   </si>
   <si>
     <t>Nom de rue</t>
-  </si>
-  <si>
-    <t>Type d'adresse (facturation ou livraison ou les deux)</t>
   </si>
   <si>
     <t>Prénom</t>
@@ -390,8 +384,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}" name="Tableau4234646" displayName="Tableau4234646" ref="A1:F34" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F34" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}" name="Tableau4234646" displayName="Tableau4234646" ref="A1:F33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F33" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A7585BCD-8D17-4F15-9C4B-7F44D4945DCF}" name="Name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{9FC95855-C9FE-4C86-98B8-6295FE7C9BCA}" name="Type" dataDxfId="4"/>
@@ -701,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C508BB4-A982-4351-BEB9-D978C4430A2B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -765,12 +759,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -781,7 +775,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -810,12 +804,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -831,7 +825,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -839,15 +833,17 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,17 +851,15 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -881,7 +875,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -889,15 +883,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>50</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -914,7 +906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -928,18 +920,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,21 +943,17 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>30</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -975,51 +967,51 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>30</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,51 +1029,55 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
-        <v>1</v>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>47</v>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,49 +1085,47 @@
         <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,85 +1141,87 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1236,30 +1232,12 @@
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Livrable-2/Dictionnaire de données final.xlsx
+++ b/Livrable-2/Dictionnaire de données final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viacesifr-my.sharepoint.com/personal/anthony_schnepp_viacesi_fr/Documents/Bureau/Études One Drive/A2/Projets/Programmation orientée objet/Livrable 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viacesifr-my.sharepoint.com/personal/anthony_schnepp_viacesi_fr/Documents/Bureau/Études One Drive/A2/Projets/Programmation orientée objet/GitHub/Projet-POO/Livrable-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{580B3F30-1DBD-4438-AD19-EBA9ADCE404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D8A61E-1C6D-499A-AE20-8953821CF7CC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{580B3F30-1DBD-4438-AD19-EBA9ADCE404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7276721F-7DCA-4FEC-8CB3-BD793F079043}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB4EF615-54DA-4A8A-8E99-B0FF27B7371C}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>format DD-MM-YYYY</t>
-  </si>
-  <si>
     <t>AN</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Pourcentage de la remise de chaque article</t>
+  </si>
+  <si>
+    <t>format YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,33 +710,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -759,12 +759,12 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -775,18 +775,18 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -798,23 +798,23 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -825,18 +825,18 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -859,12 +859,12 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -875,12 +875,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>3</v>
@@ -889,12 +889,12 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>3</v>
@@ -903,12 +903,12 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>3</v>
@@ -917,15 +917,15 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
         <v>30</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
@@ -949,12 +949,12 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>3</v>
@@ -963,18 +963,18 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -997,12 +997,12 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -1011,12 +1011,12 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
@@ -1025,18 +1025,18 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1048,26 +1048,26 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>30</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -1093,28 +1093,28 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -1125,12 +1125,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
@@ -1141,80 +1141,80 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1226,18 +1226,18 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Livrable-2/Dictionnaire de données final.xlsx
+++ b/Livrable-2/Dictionnaire de données final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viacesifr-my.sharepoint.com/personal/anthony_schnepp_viacesi_fr/Documents/Bureau/Études One Drive/A2/Projets/Programmation orientée objet/GitHub/Projet-POO/Livrable-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schne\OneDrive - Association Cesi Viacesi mail\Bureau\Études One Drive\A2\Projets\Programmation orientée objet\Livrable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{580B3F30-1DBD-4438-AD19-EBA9ADCE404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7276721F-7DCA-4FEC-8CB3-BD793F079043}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35669AA3-8270-4384-A4F6-FA11066F8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB4EF615-54DA-4A8A-8E99-B0FF27B7371C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>N</t>
   </si>
@@ -50,27 +50,21 @@
     <t>Date</t>
   </si>
   <si>
+    <t>format DD-MM-YYYY</t>
+  </si>
+  <si>
     <t>AN</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Commentaries</t>
-  </si>
-  <si>
     <t>Id_ville</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Date_emission</t>
   </si>
   <si>
-    <t>Id_paiement</t>
-  </si>
-  <si>
     <t>Moyen_paiement</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Couleur_article</t>
   </si>
   <si>
-    <t>Id_taxe</t>
-  </si>
-  <si>
     <t>Pourcentage_taxe</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>Quantite max de produits avant réapprovisionnement</t>
   </si>
   <si>
-    <t>Pourcentage de la taxe</t>
-  </si>
-  <si>
     <t>Couleur de l'article</t>
   </si>
   <si>
@@ -227,7 +212,13 @@
     <t>Pourcentage de la remise de chaque article</t>
   </si>
   <si>
-    <t>format YYYY-MM-DD</t>
+    <t>Pourcentage de la taxe sur l'article</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
   </si>
 </sst>
 </file>
@@ -249,24 +240,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -309,25 +288,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,15 +369,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}" name="Tableau4234646" displayName="Tableau4234646" ref="A1:F33" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F33" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}" name="Tableau4234646" displayName="Tableau4234646" ref="A1:F31" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F31" xr:uid="{D97F1EB4-EF69-4A77-9325-B5CC9874FEE7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7585BCD-8D17-4F15-9C4B-7F44D4945DCF}" name="Name" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{A7585BCD-8D17-4F15-9C4B-7F44D4945DCF}" name="Nom" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{9FC95855-C9FE-4C86-98B8-6295FE7C9BCA}" name="Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F3B7098B-DBAF-4CC3-B573-E9BF488C6C9F}" name="Length" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F3B7098B-DBAF-4CC3-B573-E9BF488C6C9F}" name="Taille" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{05DF61AC-039F-4BD8-8BFA-13411102DF4E}" name="Min" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{69725E4B-414D-4855-919F-628548EC32FC}" name="Max" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6E1EA1CF-A1FB-4B31-B47B-CC67697D6847}" name="Commentaries" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{6E1EA1CF-A1FB-4B31-B47B-CC67697D6847}" name="Commentaires" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C508BB4-A982-4351-BEB9-D978C4430A2B}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,536 +694,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C23" s="1">
         <v>50</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
